--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H2">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I2">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J2">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>0.46093478274</v>
+        <v>0.22180131666</v>
       </c>
       <c r="R2">
-        <v>4.14841304466</v>
+        <v>1.99621184994</v>
       </c>
       <c r="S2">
-        <v>0.0001584549341763806</v>
+        <v>6.389179680278845E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001709019697918199</v>
+        <v>6.905810667456395E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H3">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I3">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J3">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>84.42180039978</v>
+        <v>38.57757663236399</v>
       </c>
       <c r="R3">
-        <v>759.7962035980199</v>
+        <v>347.198189691276</v>
       </c>
       <c r="S3">
-        <v>0.02902156948512234</v>
+        <v>0.01111260620295274</v>
       </c>
       <c r="T3">
-        <v>0.03130128712771192</v>
+        <v>0.01201117487687306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H4">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I4">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J4">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>3.86235929286</v>
+        <v>0.6890605246979999</v>
       </c>
       <c r="R4">
-        <v>23.17415575716</v>
+        <v>4.134363148188</v>
       </c>
       <c r="S4">
-        <v>0.00132775809167103</v>
+        <v>0.0001984898723406316</v>
       </c>
       <c r="T4">
-        <v>0.000954704564016163</v>
+        <v>0.0001430265486739469</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.25226</v>
+        <v>0.437724</v>
       </c>
       <c r="H5">
-        <v>3.75678</v>
+        <v>1.313172</v>
       </c>
       <c r="I5">
-        <v>0.05753803679167191</v>
+        <v>0.02046276855287852</v>
       </c>
       <c r="J5">
-        <v>0.06158044274193954</v>
+        <v>0.02204588088728605</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>78.62919794226001</v>
+        <v>31.54836491352</v>
       </c>
       <c r="R5">
-        <v>707.6627814803401</v>
+        <v>283.93528422168</v>
       </c>
       <c r="S5">
-        <v>0.02703025428070217</v>
+        <v>0.009087780680782366</v>
       </c>
       <c r="T5">
-        <v>0.02915354908041963</v>
+        <v>0.009822621355064478</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H6">
         <v>37.45258</v>
       </c>
       <c r="I6">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J6">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>4.595211011917779</v>
+        <v>6.3259280249</v>
       </c>
       <c r="R6">
-        <v>41.35689910726001</v>
+        <v>56.9333522241</v>
       </c>
       <c r="S6">
-        <v>0.001579689547600772</v>
+        <v>0.001822238542323609</v>
       </c>
       <c r="T6">
-        <v>0.001703778154639271</v>
+        <v>0.001969585297948509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
         <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J7">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>841.6287973255802</v>
+        <v>1100.259352948237</v>
       </c>
       <c r="R7">
-        <v>7574.659175930221</v>
+        <v>9902.334176534137</v>
       </c>
       <c r="S7">
-        <v>0.2893256067342521</v>
+        <v>0.316939268294316</v>
       </c>
       <c r="T7">
-        <v>0.3120528644886316</v>
+        <v>0.3425670726836076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
         <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J8">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>38.50513482412667</v>
+        <v>19.65248606130333</v>
       </c>
       <c r="R8">
-        <v>231.03080894476</v>
+        <v>117.91491636782</v>
       </c>
       <c r="S8">
-        <v>0.01323685873246679</v>
+        <v>0.005661069397632062</v>
       </c>
       <c r="T8">
-        <v>0.009517764963660495</v>
+        <v>0.00407921677916898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.48419333333334</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
         <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5736156831070853</v>
+        <v>0.5836124104444559</v>
       </c>
       <c r="J9">
-        <v>0.6139157624955175</v>
+        <v>0.6287638767819841</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>783.8804311853047</v>
+        <v>899.7813392250221</v>
       </c>
       <c r="R9">
-        <v>7054.923880667741</v>
+        <v>8098.032053025199</v>
       </c>
       <c r="S9">
-        <v>0.2694735280927658</v>
+        <v>0.2591898342101842</v>
       </c>
       <c r="T9">
-        <v>0.2906413548885862</v>
+        <v>0.280148002021259</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H10">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I10">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J10">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>0.5173719880512222</v>
+        <v>0.9104666943349999</v>
       </c>
       <c r="R10">
-        <v>4.656347892461</v>
+        <v>8.194200249014999</v>
       </c>
       <c r="S10">
-        <v>0.0001778562768121628</v>
+        <v>0.0002622678436094651</v>
       </c>
       <c r="T10">
-        <v>0.0001918273369335611</v>
+        <v>0.0002834749001846797</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H11">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I11">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J11">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>94.75846983831299</v>
+        <v>158.3561324199201</v>
       </c>
       <c r="R11">
-        <v>852.8262285448169</v>
+        <v>1425.205191779281</v>
       </c>
       <c r="S11">
-        <v>0.03257499252199834</v>
+        <v>0.04561586011934449</v>
       </c>
       <c r="T11">
-        <v>0.03513384052633157</v>
+        <v>0.04930437226389283</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H12">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I12">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J12">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>4.335269501764333</v>
+        <v>2.828507366708833</v>
       </c>
       <c r="R12">
-        <v>26.011617010586</v>
+        <v>16.971044200253</v>
       </c>
       <c r="S12">
-        <v>0.00149032980209355</v>
+        <v>0.0008147761277989834</v>
       </c>
       <c r="T12">
-        <v>0.001071599316828371</v>
+        <v>0.0005871061134092745</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.405587666666666</v>
+        <v>1.796802333333333</v>
       </c>
       <c r="H13">
-        <v>4.216762999999999</v>
+        <v>5.390407</v>
       </c>
       <c r="I13">
-        <v>0.06458303777058033</v>
+        <v>0.08399710841140098</v>
       </c>
       <c r="J13">
-        <v>0.06912039897939969</v>
+        <v>0.09049558675938332</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>88.25661673097655</v>
+        <v>129.5020965025089</v>
       </c>
       <c r="R13">
-        <v>794.309550578789</v>
+        <v>1165.51886852258</v>
       </c>
       <c r="S13">
-        <v>0.03033985916967629</v>
+        <v>0.03730420432064804</v>
       </c>
       <c r="T13">
-        <v>0.03272313179930619</v>
+        <v>0.04032063348189654</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H14">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I14">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J14">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>1.577621493277334</v>
+        <v>2.33509878822</v>
       </c>
       <c r="R14">
-        <v>9.465728959664</v>
+        <v>14.01059272932</v>
       </c>
       <c r="S14">
-        <v>0.0005423368320926015</v>
+        <v>0.0006726454988546766</v>
       </c>
       <c r="T14">
-        <v>0.0003899591741001861</v>
+        <v>0.0004846905438940922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H15">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I15">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J15">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>288.946835428968</v>
+        <v>406.1402962038546</v>
       </c>
       <c r="R15">
-        <v>1733.681012573808</v>
+        <v>2436.841777223128</v>
       </c>
       <c r="S15">
-        <v>0.09933086740862562</v>
+        <v>0.1169922418371319</v>
       </c>
       <c r="T15">
-        <v>0.07142237208537762</v>
+        <v>0.08430151309119162</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H16">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I16">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J16">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>13.219529667416</v>
+        <v>7.254350066365999</v>
       </c>
       <c r="R16">
-        <v>52.878118669664</v>
+        <v>29.017400265464</v>
       </c>
       <c r="S16">
-        <v>0.004544460044523635</v>
+        <v>0.002089678579713041</v>
       </c>
       <c r="T16">
-        <v>0.002178417274809203</v>
+        <v>0.001003844718691137</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.286056</v>
+        <v>4.608308</v>
       </c>
       <c r="H17">
-        <v>8.572112000000001</v>
+        <v>9.216616</v>
       </c>
       <c r="I17">
-        <v>0.1969329434934967</v>
+        <v>0.2154296772038511</v>
       </c>
       <c r="J17">
-        <v>0.1405124740318818</v>
+        <v>0.154731001361478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>269.1207461833894</v>
+        <v>332.1375625231733</v>
       </c>
       <c r="R17">
-        <v>1614.724477100336</v>
+        <v>1992.82537513904</v>
       </c>
       <c r="S17">
-        <v>0.09251527920825485</v>
+        <v>0.0956751112881515</v>
       </c>
       <c r="T17">
-        <v>0.06652172549759477</v>
+        <v>0.06894095300770116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H18">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I18">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J18">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>0.8598184911148889</v>
+        <v>1.04596752139</v>
       </c>
       <c r="R18">
-        <v>7.738366420034</v>
+        <v>9.413707692510002</v>
       </c>
       <c r="S18">
-        <v>0.0002955786534558297</v>
+        <v>0.0003013000343970373</v>
       </c>
       <c r="T18">
-        <v>0.0003187971038363842</v>
+        <v>0.0003256632456380111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H19">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I19">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J19">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>157.478731818522</v>
+        <v>181.9235918839948</v>
       </c>
       <c r="R19">
-        <v>1417.308586366698</v>
+        <v>1637.312326955954</v>
       </c>
       <c r="S19">
-        <v>0.05413625315093485</v>
+        <v>0.05240467162827171</v>
       </c>
       <c r="T19">
-        <v>0.05838879267934147</v>
+        <v>0.05664212910964401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H20">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I20">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J20">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>7.204767493547333</v>
+        <v>3.249461905633666</v>
       </c>
       <c r="R20">
-        <v>43.228604961284</v>
+        <v>19.496771433802</v>
       </c>
       <c r="S20">
-        <v>0.002476773291353302</v>
+        <v>0.0009360357409933687</v>
       </c>
       <c r="T20">
-        <v>0.001780886729383375</v>
+        <v>0.0006744825813580651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>2.335940666666667</v>
+        <v>2.064212666666667</v>
       </c>
       <c r="H21">
-        <v>7.007822</v>
+        <v>6.192638000000001</v>
       </c>
       <c r="I21">
-        <v>0.1073302988371658</v>
+        <v>0.09649803538741349</v>
       </c>
       <c r="J21">
-        <v>0.1148709217512615</v>
+        <v>0.1039636542098684</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>146.6733274724962</v>
+        <v>148.7753343821911</v>
       </c>
       <c r="R21">
-        <v>1320.059947252466</v>
+        <v>1338.97800943972</v>
       </c>
       <c r="S21">
-        <v>0.05042169374142186</v>
+        <v>0.04285602798375136</v>
       </c>
       <c r="T21">
-        <v>0.05438244523870029</v>
+        <v>0.04632137927322832</v>
       </c>
     </row>
   </sheetData>
